--- a/result/16_pred.xlsx
+++ b/result/16_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,74 +447,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>578303.0287695469</v>
+        <v>578288.9421172634</v>
       </c>
       <c r="B2" t="n">
-        <v>3335999.508602032</v>
+        <v>3336009.880015988</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>578297.2465607896</v>
+        <v>578311.0873</v>
       </c>
       <c r="B3" t="n">
-        <v>3336013.349341243</v>
+        <v>3336019.13155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>578291.4643520325</v>
+        <v>578333.2324827366</v>
       </c>
       <c r="B4" t="n">
-        <v>3336027.190080453</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>578316.8695087573</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3336005.29081079</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>578311.0873</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3336019.13155</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>578305.3050912428</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3336032.97228921</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>578330.7102479675</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3336011.073019547</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>578324.9280392104</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3336024.913758757</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>578319.1458304531</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3336038.754497968</v>
+        <v>3336028.383084012</v>
       </c>
     </row>
   </sheetData>
